--- a/raport.xlsx
+++ b/raport.xlsx
@@ -149,10 +149,10 @@
           <t>Styczeń</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>4000.0</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>1100.0</v>
       </c>
     </row>
@@ -162,10 +162,10 @@
           <t>Luty</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>4000.0</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>1010.0</v>
       </c>
     </row>
